--- a/biology/Botanique/Cenelle/Cenelle.xlsx
+++ b/biology/Botanique/Cenelle/Cenelle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La cenelle, parfois écrit senelle, est le fruit du houx ou celui de l'aubépine. Celle-ci est d'ailleurs parfois appelée cenellier[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La cenelle, parfois écrit senelle, est le fruit du houx ou celui de l'aubépine. Celle-ci est d'ailleurs parfois appelée cenellier.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Cenelles de houx</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les fruits du houx n'apparaissent que sur les pieds femelles et sont de petites drupes sphériques de 8 à 10 mm de diamètre, longtemps vertes puis jaunes et rouge éclatant (parfois restant jaunes) à maturité, qui contiennent deux quatre noyaux jaunâtres striés, enserrant une graine lignifiée[2]. Ces fruits qui murissent en fin d'été ont une toxicité légère[3] et persistent tout l'hiver. Leurs graines sont dispersées naturellement par les oiseaux (merles et grives), assez friands de la chair farineuse des fruits (dispersion par ornithochorie)[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fruits du houx n'apparaissent que sur les pieds femelles et sont de petites drupes sphériques de 8 à 10 mm de diamètre, longtemps vertes puis jaunes et rouge éclatant (parfois restant jaunes) à maturité, qui contiennent deux quatre noyaux jaunâtres striés, enserrant une graine lignifiée. Ces fruits qui murissent en fin d'été ont une toxicité légère et persistent tout l'hiver. Leurs graines sont dispersées naturellement par les oiseaux (merles et grives), assez friands de la chair farineuse des fruits (dispersion par ornithochorie).
 </t>
         </is>
       </c>
@@ -542,16 +556,122 @@
           <t>Cenelles d'aubépine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Les cenelles de l'aubépine sont en fait des faux-fruits, la partie comestible étant constituée par le réceptacle floral hypertrophié et charnu, le vrai fruit étant le noyau interne.
-La cenelle a aussi pour noms locaux poire à bon Dieu, poire d’oiseau, poire à cochons[4], poiriette, hague en Normandie (cf. norvégien hagtorn, anglais hawthorn), Mehlbeere « baie à farine » en Allemagne où on en fait du pain.[réf. souhaitée]
-Utilisations
-Les cenelles d'aubépine ont été traditionnellement utilisées, comme les fleurs, en cas de palpitations cardiaques de l'adulte (si le cœur est sain), et de troubles du sommeil (grâce à la présence de composés procyanidiques et de flavonoïdes qui ont un effet sédatif et sur la circulation coronarienne)[5],[6]
-Représentation artistique
-La Vendeuse de cenelles, Francisco de Goya, 1770.
-Espèces fruitières
-La cenelle est souvent insipide (léger arôme de pomme), farineuse et de petite taille[5]. Toutefois, il existe des espèces et variétés d'aubépine utilisées comme des arbres fruitiers classiques :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les cenelles de l'aubépine sont en fait des faux-fruits, la partie comestible étant constituée par le réceptacle floral hypertrophié et charnu, le vrai fruit étant le noyau interne.
+La cenelle a aussi pour noms locaux poire à bon Dieu, poire d’oiseau, poire à cochons, poiriette, hague en Normandie (cf. norvégien hagtorn, anglais hawthorn), Mehlbeere « baie à farine » en Allemagne où on en fait du pain.[réf. souhaitée]
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Cenelle</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cenelle</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Cenelles d'aubépine</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Utilisations</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les cenelles d'aubépine ont été traditionnellement utilisées, comme les fleurs, en cas de palpitations cardiaques de l'adulte (si le cœur est sain), et de troubles du sommeil (grâce à la présence de composés procyanidiques et de flavonoïdes qui ont un effet sédatif et sur la circulation coronarienne),
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Cenelle</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cenelle</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Cenelles d'aubépine</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Représentation artistique</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>La Vendeuse de cenelles, Francisco de Goya, 1770.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Cenelle</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cenelle</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Cenelles d'aubépine</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Espèces fruitières</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>La cenelle est souvent insipide (léger arôme de pomme), farineuse et de petite taille. Toutefois, il existe des espèces et variétés d'aubépine utilisées comme des arbres fruitiers classiques :
 En Europe :
 l'azérolier (Crataegus azarolus) en région méditerranéenne
 Crataegus schraderiana : venant du sud de l'Europe, fruit de 15 mm de diamètre au goût de pomme, rustique à -18 °C, très réputé pour ses fruits.
@@ -571,33 +691,35 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Cenelle</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Cenelle</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L’étymologie du terme cenelle n'est pas assurée. Un dérivé non attesté *acinella du latin acinus signifiant « baie » fait difficulté, car on doit supposer une aphérèse du a- initial, en outre le correspondant provençal (occitan) est de type assan(h)a, ce qui s'accorde mal avec cette hypothèse. Il faut plutôt penser à un étymon prélatin, mais il n'a pas été identifié avec certitude[7].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’étymologie du terme cenelle n'est pas assurée. Un dérivé non attesté *acinella du latin acinus signifiant « baie » fait difficulté, car on doit supposer une aphérèse du a- initial, en outre le correspondant provençal (occitan) est de type assan(h)a, ce qui s'accorde mal avec cette hypothèse. Il faut plutôt penser à un étymon prélatin, mais il n'a pas été identifié avec certitude.
 </t>
         </is>
       </c>
